--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Fall.100419.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Fall.100419.xlsx_with_dialog_acts.xlsx
@@ -817,12 +817,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1235,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1387,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1463,12 +1463,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1695,12 +1695,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2003,12 +2003,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2041,12 +2041,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2079,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2155,12 +2155,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2573,12 +2573,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3261,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3451,12 +3451,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3489,12 +3489,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3755,12 +3755,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3869,12 +3869,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4021,12 +4021,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4477,12 +4477,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5351,12 +5351,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5579,12 +5579,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5807,12 +5807,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6237,12 +6237,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6431,12 +6431,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6507,12 +6507,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7047,12 +7047,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7085,12 +7085,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7237,12 +7237,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7313,12 +7313,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7469,12 +7469,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7545,12 +7545,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7739,12 +7739,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8317,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8507,12 +8507,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8777,12 +8777,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9199,12 +9199,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9469,12 +9469,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10241,12 +10241,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10933,12 +10933,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11009,12 +11009,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11465,12 +11465,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12039,12 +12039,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13419,12 +13419,12 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13457,12 +13457,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13807,12 +13807,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13921,12 +13921,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14039,12 +14039,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16457,12 +16457,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16723,12 +16723,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16837,12 +16837,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16989,12 +16989,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17293,12 +17293,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17331,12 +17331,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18015,12 +18015,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18091,12 +18091,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18129,12 +18129,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18205,12 +18205,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18509,12 +18509,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18737,12 +18737,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18927,12 +18927,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20029,12 +20029,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
